--- a/biology/Botanique/Chroococcaceae/Chroococcaceae.xlsx
+++ b/biology/Botanique/Chroococcaceae/Chroococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chroococcaceae sont une famille de cyanobactéries de l’ordre des Chroococcales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (16 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (16 août 2017) :
 genre Aphanocapsaopsis P.K.Maithy &amp; M.Shukla
 genre Asterocapsa H.-J.Chu
 genre Chalicogloea M.Roldán, M.Hernández-Mariné &amp; Komárek
@@ -535,7 +549,7 @@
 genre Stilocapsa Ley
 genre Tetraphycus D.Z.Oehler
 genre Tetrarcus H.Skuja
-Selon Catalogue of Life                                   (16 août 2017)[2] :
+Selon Catalogue of Life                                   (16 août 2017) :
 genre Agmenellum
 genre Anacystis
 genre Aphanocapsa
@@ -557,7 +571,7 @@
 genre Rhabdoderma
 genre Synechococcus
 genre Synechocystis
-Selon ITIS      (16 août 2017)[3] :
+Selon ITIS      (16 août 2017) :
 genre Agmenellum De Brebisson, 1839
 genre Anacystis Meneghini, 1837
 genre Aphanocapsa Nageli, 1849
@@ -580,7 +594,7 @@
 genre Rhabdoderma W. Schmidle &amp; R. Lauterborn, 1900
 genre Synechococcus Nageli, 1849
 genre Synechocystis C. Sauvageau, 1892
-Selon World Register of Marine Species                               (16 août 2017)[4] :
+Selon World Register of Marine Species                               (16 août 2017) :
 genre Asterocapsa Chu, 1952
 genre Chalicogloea M.Roldán, M.Ramürez, J. del Campo, M.Hernández-Mariné &amp; J.Komárek, 2012
 genre Chroococcus Nägeli, 1849
